--- a/JupyterNotebooks/AveragedIntensites/ShearF-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/ShearF-HW30.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="ShearF-HW30.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="ShearF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9929963846515228</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9528535474453399</v>
+      </c>
+      <c r="D16">
+        <v>1.1851820878893</v>
+      </c>
+      <c r="E16">
+        <v>0.9489456796225956</v>
+      </c>
+      <c r="F16">
+        <v>0.9528535474453399</v>
+      </c>
+      <c r="G16">
+        <v>1.102144700832245</v>
+      </c>
+      <c r="H16">
+        <v>0.8620159336131725</v>
+      </c>
+      <c r="I16">
+        <v>0.9450172605927911</v>
+      </c>
+      <c r="J16">
+        <v>1.1851820878893</v>
+      </c>
+      <c r="K16">
+        <v>1.067063883755948</v>
+      </c>
+      <c r="L16">
+        <v>1.009958715600644</v>
+      </c>
+      <c r="M16">
+        <v>0.9993598683325741</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/ShearF-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/ShearF-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9528535474453399</v>

--- a/JupyterNotebooks/AveragedIntensites/ShearF-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/ShearF-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8489320000000012</v>
+        <v>0.9528535474453399</v>
       </c>
       <c r="D10">
-        <v>1.452999999999997</v>
+        <v>1.1851820878893</v>
       </c>
       <c r="E10">
-        <v>0.9060360000000003</v>
+        <v>0.9489456796225956</v>
       </c>
       <c r="F10">
-        <v>0.8489320000000012</v>
+        <v>0.9528535474453399</v>
       </c>
       <c r="G10">
-        <v>1.239003999999999</v>
+        <v>1.102144700832245</v>
       </c>
       <c r="H10">
-        <v>0.7493399999999997</v>
+        <v>0.8620159336131725</v>
       </c>
       <c r="I10">
-        <v>0.8847720000000018</v>
+        <v>0.9450172605927911</v>
       </c>
       <c r="J10">
-        <v>1.452999999999997</v>
+        <v>1.1851820878893</v>
       </c>
       <c r="K10">
-        <v>1.179517999999999</v>
+        <v>1.067063883755948</v>
       </c>
       <c r="L10">
-        <v>1.014225</v>
+        <v>1.009958715600644</v>
       </c>
       <c r="M10">
-        <v>1.013514</v>
+        <v>0.9993598683325741</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.76</v>
+        <v>0.9992396605434293</v>
       </c>
       <c r="D11">
-        <v>1.83</v>
+        <v>0.8910338054020623</v>
       </c>
       <c r="E11">
-        <v>0.8165500000000008</v>
+        <v>1.030571606813469</v>
       </c>
       <c r="F11">
-        <v>0.76</v>
+        <v>0.9992396605434293</v>
       </c>
       <c r="G11">
-        <v>1.448349999999997</v>
+        <v>0.9317422398444506</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>1.095468658029462</v>
       </c>
       <c r="I11">
-        <v>0.79</v>
+        <v>1.023772164988507</v>
       </c>
       <c r="J11">
-        <v>1.83</v>
+        <v>0.8910338054020623</v>
       </c>
       <c r="K11">
-        <v>1.323275</v>
+        <v>0.9608027061077656</v>
       </c>
       <c r="L11">
-        <v>1.0416375</v>
+        <v>0.9800211833255974</v>
       </c>
       <c r="M11">
-        <v>1.02415</v>
+        <v>0.9953046892702301</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8566941956096013</v>
+        <v>0.9989173332838192</v>
       </c>
       <c r="D12">
-        <v>1.481761670553597</v>
+        <v>0.8915076231967975</v>
       </c>
       <c r="E12">
-        <v>0.8903419113472026</v>
+        <v>1.030513198479108</v>
       </c>
       <c r="F12">
-        <v>0.8566941956096013</v>
+        <v>0.9989173332838192</v>
       </c>
       <c r="G12">
-        <v>1.257118367232</v>
+        <v>0.9319470414445374</v>
       </c>
       <c r="H12">
-        <v>0.7089918062592004</v>
+        <v>1.095496555503946</v>
       </c>
       <c r="I12">
-        <v>0.8767744202752022</v>
+        <v>1.023702305444473</v>
       </c>
       <c r="J12">
-        <v>1.481761670553597</v>
+        <v>0.8915076231967975</v>
       </c>
       <c r="K12">
-        <v>1.1860517909504</v>
+        <v>0.9610104108379527</v>
       </c>
       <c r="L12">
-        <v>1.02137299328</v>
+        <v>0.979963872060886</v>
       </c>
       <c r="M12">
-        <v>1.011947061879467</v>
+        <v>0.9953473428921135</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9967212920330168</v>
+        <v>0.9991492332374177</v>
       </c>
       <c r="D13">
-        <v>0.9948912011237511</v>
+        <v>0.8912452291395052</v>
       </c>
       <c r="E13">
-        <v>0.9950882865136689</v>
+        <v>1.03047600758767</v>
       </c>
       <c r="F13">
-        <v>0.9967212920330168</v>
+        <v>0.9991492332374177</v>
       </c>
       <c r="G13">
-        <v>0.9970342577275021</v>
+        <v>0.93181969850216</v>
       </c>
       <c r="H13">
-        <v>0.9936737435347085</v>
+        <v>1.095388013879673</v>
       </c>
       <c r="I13">
-        <v>0.9950740276813855</v>
+        <v>1.023733494529424</v>
       </c>
       <c r="J13">
-        <v>0.9948912011237511</v>
+        <v>0.8912452291395052</v>
       </c>
       <c r="K13">
-        <v>0.99498974381871</v>
+        <v>0.9608606183635878</v>
       </c>
       <c r="L13">
-        <v>0.9958555179258634</v>
+        <v>0.9800049258005028</v>
       </c>
       <c r="M13">
-        <v>0.9954138014356722</v>
+        <v>0.9953019461459752</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.001704617832466</v>
+        <v>0.8489320000000012</v>
       </c>
       <c r="D14">
-        <v>0.9703317057073563</v>
+        <v>1.452999999999997</v>
       </c>
       <c r="E14">
-        <v>1.00197211203712</v>
+        <v>0.9060360000000003</v>
       </c>
       <c r="F14">
-        <v>1.001704617832466</v>
+        <v>0.8489320000000012</v>
       </c>
       <c r="G14">
-        <v>0.9820684144004888</v>
+        <v>1.239003999999999</v>
       </c>
       <c r="H14">
-        <v>1.01217316590617</v>
+        <v>0.7493399999999997</v>
       </c>
       <c r="I14">
-        <v>1.002125710800175</v>
+        <v>0.8847720000000018</v>
       </c>
       <c r="J14">
-        <v>0.9703317057073563</v>
+        <v>1.452999999999997</v>
       </c>
       <c r="K14">
-        <v>0.9861519088722384</v>
+        <v>1.179517999999999</v>
       </c>
       <c r="L14">
-        <v>0.9939282633523518</v>
+        <v>1.014225</v>
       </c>
       <c r="M14">
-        <v>0.9950626211139627</v>
+        <v>1.013514</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.014913140328588</v>
+        <v>0.76</v>
       </c>
       <c r="D15">
-        <v>0.909582521458742</v>
+        <v>1.83</v>
       </c>
       <c r="E15">
-        <v>1.015629259677803</v>
+        <v>0.8165500000000008</v>
       </c>
       <c r="F15">
-        <v>1.014913140328588</v>
+        <v>0.76</v>
       </c>
       <c r="G15">
-        <v>0.945077579816057</v>
+        <v>1.448349999999997</v>
       </c>
       <c r="H15">
-        <v>1.054597876214529</v>
+        <v>0.5</v>
       </c>
       <c r="I15">
-        <v>1.018177930413418</v>
+        <v>0.79</v>
       </c>
       <c r="J15">
-        <v>0.909582521458742</v>
+        <v>1.83</v>
       </c>
       <c r="K15">
-        <v>0.9626058905682726</v>
+        <v>1.323275</v>
       </c>
       <c r="L15">
-        <v>0.9887595154484301</v>
+        <v>1.0416375</v>
       </c>
       <c r="M15">
-        <v>0.9929963846515228</v>
+        <v>1.02415</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9528535474453399</v>
+        <v>0.8566941956096013</v>
       </c>
       <c r="D16">
-        <v>1.1851820878893</v>
+        <v>1.481761670553597</v>
       </c>
       <c r="E16">
-        <v>0.9489456796225956</v>
+        <v>0.8903419113472026</v>
       </c>
       <c r="F16">
-        <v>0.9528535474453399</v>
+        <v>0.8566941956096013</v>
       </c>
       <c r="G16">
-        <v>1.102144700832245</v>
+        <v>1.257118367232</v>
       </c>
       <c r="H16">
-        <v>0.8620159336131725</v>
+        <v>0.7089918062592004</v>
       </c>
       <c r="I16">
-        <v>0.9450172605927911</v>
+        <v>0.8767744202752022</v>
       </c>
       <c r="J16">
-        <v>1.1851820878893</v>
+        <v>1.481761670553597</v>
       </c>
       <c r="K16">
-        <v>1.067063883755948</v>
+        <v>1.1860517909504</v>
       </c>
       <c r="L16">
-        <v>1.009958715600644</v>
+        <v>1.02137299328</v>
       </c>
       <c r="M16">
-        <v>0.9993598683325741</v>
+        <v>1.011947061879467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9967212920330168</v>
+      </c>
+      <c r="D17">
+        <v>0.9948912011237511</v>
+      </c>
+      <c r="E17">
+        <v>0.9950882865136689</v>
+      </c>
+      <c r="F17">
+        <v>0.9967212920330168</v>
+      </c>
+      <c r="G17">
+        <v>0.9970342577275021</v>
+      </c>
+      <c r="H17">
+        <v>0.9936737435347085</v>
+      </c>
+      <c r="I17">
+        <v>0.9950740276813855</v>
+      </c>
+      <c r="J17">
+        <v>0.9948912011237511</v>
+      </c>
+      <c r="K17">
+        <v>0.99498974381871</v>
+      </c>
+      <c r="L17">
+        <v>0.9958555179258634</v>
+      </c>
+      <c r="M17">
+        <v>0.9954138014356722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.001704617832466</v>
+      </c>
+      <c r="D18">
+        <v>0.9703317057073563</v>
+      </c>
+      <c r="E18">
+        <v>1.00197211203712</v>
+      </c>
+      <c r="F18">
+        <v>1.001704617832466</v>
+      </c>
+      <c r="G18">
+        <v>0.9820684144004888</v>
+      </c>
+      <c r="H18">
+        <v>1.01217316590617</v>
+      </c>
+      <c r="I18">
+        <v>1.002125710800175</v>
+      </c>
+      <c r="J18">
+        <v>0.9703317057073563</v>
+      </c>
+      <c r="K18">
+        <v>0.9861519088722384</v>
+      </c>
+      <c r="L18">
+        <v>0.9939282633523518</v>
+      </c>
+      <c r="M18">
+        <v>0.9950626211139627</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.014913140328588</v>
+      </c>
+      <c r="D19">
+        <v>0.909582521458742</v>
+      </c>
+      <c r="E19">
+        <v>1.015629259677803</v>
+      </c>
+      <c r="F19">
+        <v>1.014913140328588</v>
+      </c>
+      <c r="G19">
+        <v>0.945077579816057</v>
+      </c>
+      <c r="H19">
+        <v>1.054597876214529</v>
+      </c>
+      <c r="I19">
+        <v>1.018177930413418</v>
+      </c>
+      <c r="J19">
+        <v>0.909582521458742</v>
+      </c>
+      <c r="K19">
+        <v>0.9626058905682726</v>
+      </c>
+      <c r="L19">
+        <v>0.9887595154484301</v>
+      </c>
+      <c r="M19">
+        <v>0.9929963846515228</v>
       </c>
     </row>
   </sheetData>
